--- a/PricerAndQutation/OptionPricer_v2_20180201.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180201.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="203">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1651,39 +1651,39 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="wdf.rtq">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>13005</v>
         <stp/>
         <stp>ru1805</stp>
         <stp>LastPrice</stp>
         <tr r="P24" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>14565</v>
         <stp/>
         <stp>al1805</stp>
         <stp>LastPrice</stp>
+        <tr r="P15" s="1"/>
         <tr r="P16" s="1"/>
-        <tr r="P15" s="1"/>
       </tp>
       <tp>
-        <v>3669</v>
+        <v>3685</v>
         <stp/>
         <stp>rb1901</stp>
         <stp>LastPrice</stp>
         <tr r="P14" s="1"/>
         <tr r="P21" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>3784</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="P19" s="1"/>
         <tr r="P23" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>3961</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -4179,7 +4179,7 @@
       <c r="C23" s="169"/>
       <c r="D23" s="178">
         <f ca="1">TODAY()</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="E23" s="179"/>
       <c r="G23" s="156" t="s">
@@ -4537,10 +4537,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4566,13 +4566,13 @@
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="184" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="184"/>
     </row>
-    <row r="2" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>43111</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -4596,8 +4596,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4619,8 +4619,11 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>170</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -4696,11 +4699,11 @@
       </c>
       <c r="E8" s="21">
         <f t="shared" ref="E8:E12" ca="1" si="0">TODAY()</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F9" ca="1" si="1">E8+H8</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -4718,22 +4721,22 @@
       <c r="K8" s="23">
         <v>0.3</v>
       </c>
-      <c r="L8" s="24" t="e">
+      <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
+        <v>-228.41672103930978</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="24" t="e">
+      <c r="N8" s="24">
         <f t="shared" ref="N8:N9" si="3">M8/10000*I8*P8</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="O8" s="24">
         <f t="shared" ref="O8:O9" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P8" s="20" t="e">
+        <v>228.41672103930978</v>
+      </c>
+      <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3961</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -4745,20 +4748,20 @@
       <c r="S8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="26" t="e">
+      <c r="T8" s="26">
         <f t="shared" ref="T8:T9" si="6">O8/P8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="24" t="e">
+        <v>5.7666427932166066E-2</v>
+      </c>
+      <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V8" s="24" t="e">
+        <v>-0.6992206398763301</v>
+      </c>
+      <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+        <v>-3.939174361507412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
       <c r="B9" s="13" t="s">
         <v>172</v>
@@ -4771,11 +4774,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43164</v>
+        <v>43165</v>
       </c>
       <c r="G9" s="10">
         <v>102.5</v>
@@ -4832,7 +4835,7 @@
         <v>0.10577397020897372</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
       <c r="B10" s="13" t="s">
         <v>172</v>
@@ -4845,11 +4848,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" ca="1" si="7">E10+H10</f>
-        <v>43206</v>
+        <v>43207</v>
       </c>
       <c r="G10" s="10">
         <v>3650</v>
@@ -4906,7 +4909,7 @@
         <v>5.8526614053296271</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
       <c r="B11" s="13" t="s">
         <v>172</v>
@@ -4919,11 +4922,11 @@
       </c>
       <c r="E11" s="8">
         <f ca="1">TODAY()+1</f>
-        <v>43133</v>
+        <v>43134</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>43206</v>
+        <v>43207</v>
       </c>
       <c r="G11" s="10">
         <v>3650</v>
@@ -4980,7 +4983,7 @@
         <v>5.4144818428213171</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
       <c r="B12" s="13" t="s">
         <v>172</v>
@@ -4993,11 +4996,11 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" ca="1" si="13">E12+H12</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="G12" s="10">
         <v>52000</v>
@@ -5054,7 +5057,7 @@
         <v>34.91522925218942</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
       <c r="B13" s="13" t="s">
         <v>172</v>
@@ -5066,12 +5069,12 @@
         <v>194</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:E26" ca="1" si="18">TODAY()</f>
-        <v>43132</v>
+        <f t="shared" ref="E13:E27" ca="1" si="18">TODAY()</f>
+        <v>43133</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>43192</v>
+        <v>43193</v>
       </c>
       <c r="G13" s="10">
         <v>51000</v>
@@ -5128,7 +5131,7 @@
         <v>47.681996585030447</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
       <c r="B14" s="13" t="s">
         <v>172</v>
@@ -5141,11 +5144,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" ca="1" si="19">E14+H14</f>
-        <v>43205</v>
+        <v>43206</v>
       </c>
       <c r="G14" s="10">
         <v>3677</v>
@@ -5165,7 +5168,7 @@
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>53.752830959297626</v>
+        <v>45.889663511099116</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="13">
@@ -5174,11 +5177,11 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" ref="O14:O15" si="21">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>53.752830959297626</v>
+        <v>45.889663511099116</v>
       </c>
       <c r="P14" s="11">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3669</v>
+        <v>3685</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>85</v>
@@ -5192,18 +5195,18 @@
       </c>
       <c r="T14" s="14">
         <f t="shared" ref="T14:T15" si="23">O14/P14</f>
-        <v>1.4650539918042417E-2</v>
+        <v>1.2453097289307765E-2</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.51687726023601499</v>
+        <v>-0.46607386176447108</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>6.1946712408089297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+        <v>6.2082197219090176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
       <c r="B15" s="13" t="s">
         <v>172</v>
@@ -5216,11 +5219,11 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>43202</v>
+        <v>43203</v>
       </c>
       <c r="G15" s="10">
         <v>14000</v>
@@ -5238,22 +5241,22 @@
       <c r="K15" s="9">
         <v>0.123</v>
       </c>
-      <c r="L15" s="13" t="e">
+      <c r="L15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>#VALUE!</v>
+        <v>91.436296881119688</v>
       </c>
       <c r="M15" s="15"/>
-      <c r="N15" s="13" t="e">
+      <c r="N15" s="13">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P15" s="11" t="e">
+        <v>91.436296881119688</v>
+      </c>
+      <c r="P15" s="11">
         <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14565</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>85</v>
@@ -5265,20 +5268,20 @@
       <c r="S15" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T15" s="14" t="e">
+      <c r="T15" s="14">
         <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U15" s="13" t="e">
+        <v>6.2778096039217092E-3</v>
+      </c>
+      <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V15" s="13" t="e">
+        <v>-0.21118772051522683</v>
+      </c>
+      <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+        <v>17.444330908503389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
       <c r="B16" s="13" t="s">
         <v>172</v>
@@ -5291,11 +5294,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="24">E16+H16</f>
-        <v>43202</v>
+        <v>43203</v>
       </c>
       <c r="G16" s="10">
         <v>13800</v>
@@ -5313,22 +5316,22 @@
       <c r="K16" s="9">
         <v>0.123</v>
       </c>
-      <c r="L16" s="13" t="e">
+      <c r="L16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>#VALUE!</v>
+        <v>54.015025484354737</v>
       </c>
       <c r="M16" s="15"/>
-      <c r="N16" s="13" t="e">
+      <c r="N16" s="13">
         <f t="shared" ref="N16" si="25">M16/10000*I16*P16</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O16" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
         <f t="shared" ref="O16" si="26">IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P16" s="11" t="e">
+        <v>54.015025484354737</v>
+      </c>
+      <c r="P16" s="11">
         <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14565</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>85</v>
@@ -5340,17 +5343,17 @@
       <c r="S16" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T16" s="14" t="e">
+      <c r="T16" s="14">
         <f t="shared" ref="T16" si="28">O16/P16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U16" s="13" t="e">
+        <v>3.7085496384726903E-3</v>
+      </c>
+      <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V16" s="13" t="e">
+        <v>-0.13928714645317086</v>
+      </c>
+      <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>#VALUE!</v>
+        <v>13.375802278536753</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
@@ -5366,11 +5369,11 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ref="F17" ca="1" si="29">E17+H17</f>
-        <v>43205</v>
+        <v>43206</v>
       </c>
       <c r="G17" s="10">
         <v>3650</v>
@@ -5440,11 +5443,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18" ca="1" si="34">E18+H18</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="G18" s="10">
         <v>3754</v>
@@ -5514,11 +5517,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ref="F19" ca="1" si="39">E19+H19</f>
-        <v>43205</v>
+        <v>43206</v>
       </c>
       <c r="G19" s="10">
         <v>3650</v>
@@ -5536,22 +5539,22 @@
       <c r="K19" s="9">
         <v>0.13500000000000001</v>
       </c>
-      <c r="L19" s="13" t="e">
+      <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>#VALUE!</v>
+        <v>33.713114947168606</v>
       </c>
       <c r="M19" s="15"/>
-      <c r="N19" s="13" t="e">
+      <c r="N19" s="13">
         <f t="shared" ref="N19" si="40">M19/10000*I19*P19</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
         <f t="shared" ref="O19" si="41">IF(L19&lt;=0,ABS(L19)+N19,L19-N19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P19" s="11" t="e">
+        <v>33.713114947168606</v>
+      </c>
+      <c r="P19" s="11">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3784</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -5563,17 +5566,17 @@
       <c r="S19" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T19" s="14" t="e">
+      <c r="T19" s="14">
         <f t="shared" ref="T19" si="43">O19/P19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U19" s="13" t="e">
+        <v>8.9093855568627388E-3</v>
+      </c>
+      <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V19" s="13" t="e">
+        <v>-0.25328830094508703</v>
+      </c>
+      <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>#VALUE!</v>
+        <v>5.09601288125873</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
@@ -5589,11 +5592,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F21" ca="1" si="44">E20+H20</f>
-        <v>43205</v>
+        <v>43206</v>
       </c>
       <c r="G20" s="10">
         <v>3650</v>
@@ -5663,15 +5666,15 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="44"/>
-        <v>43205</v>
+        <v>43206</v>
       </c>
       <c r="G21" s="11">
         <f>P21</f>
-        <v>3669</v>
+        <v>3685</v>
       </c>
       <c r="H21" s="10">
         <v>73</v>
@@ -5688,7 +5691,7 @@
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>55.390798922311888</v>
+        <v>55.632350512052199</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="13">
@@ -5697,11 +5700,11 @@
       </c>
       <c r="O21" s="13">
         <f t="shared" si="46"/>
-        <v>55.390798922311888</v>
+        <v>55.632350512052199</v>
       </c>
       <c r="P21" s="11">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3669</v>
+        <v>3685</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
@@ -5715,7 +5718,7 @@
       </c>
       <c r="T21" s="14">
         <f t="shared" si="48"/>
-        <v>1.5096974358765846E-2</v>
+        <v>1.5096974358765862E-2</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
@@ -5723,7 +5726,7 @@
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>6.1537888760241231</v>
+        <v>6.180624695597885</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
@@ -5739,11 +5742,11 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ref="F22:F23" ca="1" si="49">E22+H22</f>
-        <v>43140</v>
+        <v>43141</v>
       </c>
       <c r="G22" s="10">
         <v>3650</v>
@@ -5813,11 +5816,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ca="1" si="49"/>
-        <v>43140</v>
+        <v>43141</v>
       </c>
       <c r="G23" s="11">
         <v>3600</v>
@@ -5835,22 +5838,22 @@
       <c r="K23" s="9">
         <v>0.2</v>
       </c>
-      <c r="L23" s="13" t="e">
+      <c r="L23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>#VALUE!</v>
+        <v>-2.079161499162268</v>
       </c>
       <c r="M23" s="15"/>
-      <c r="N23" s="13" t="e">
+      <c r="N23" s="13">
         <f t="shared" si="50"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O23" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P23" s="11" t="e">
+        <v>2.079161499162268</v>
+      </c>
+      <c r="P23" s="11">
         <f>RTD("wdf.rtq",,D23,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3784</v>
       </c>
       <c r="Q23" s="10" t="s">
         <v>85</v>
@@ -5862,17 +5865,17 @@
       <c r="S23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="14" t="e">
+      <c r="T23" s="14">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U23" s="13" t="e">
+        <v>5.494612841337918E-4</v>
+      </c>
+      <c r="U23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V23" s="13" t="e">
+        <v>4.4703940066881387E-2</v>
+      </c>
+      <c r="V23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>#VALUE!</v>
+        <v>-0.52804275121785338</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -5888,11 +5891,11 @@
       </c>
       <c r="E24" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ref="F24" ca="1" si="54">E24+H24</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="G24" s="11">
         <v>12955</v>
@@ -5910,24 +5913,24 @@
       <c r="K24" s="9">
         <v>0.13</v>
       </c>
-      <c r="L24" s="13" t="e">
+      <c r="L24" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>#VALUE!</v>
+        <v>141.29431311479675</v>
       </c>
       <c r="M24" s="15">
         <v>30</v>
       </c>
-      <c r="N24" s="13" t="e">
+      <c r="N24" s="13">
         <f t="shared" ref="N24" si="55">M24/10000*I24*P24</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O24" s="13" t="e">
+        <v>2.3515890410958904</v>
+      </c>
+      <c r="O24" s="13">
         <f t="shared" ref="O24" si="56">IF(L24&lt;=0,ABS(L24)+N24,L24-N24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P24" s="11" t="e">
+        <v>138.94272407370087</v>
+      </c>
+      <c r="P24" s="11">
         <f>RTD("wdf.rtq",,D24,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>13005</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>85</v>
@@ -5939,17 +5942,17 @@
       <c r="S24" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T24" s="14" t="e">
+      <c r="T24" s="14">
         <f t="shared" ref="T24" si="58">O24/P24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U24" s="13" t="e">
+        <v>1.0683792700784381E-2</v>
+      </c>
+      <c r="U24" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V24" s="13" t="e">
+        <v>-0.4451158277788636</v>
+      </c>
+      <c r="V24" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>#VALUE!</v>
+        <v>12.603406984807407</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -5965,11 +5968,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" ca="1" si="59">E25+H25</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="G25" s="11">
         <v>12955</v>
@@ -6041,45 +6044,45 @@
       </c>
       <c r="E26" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" ref="F26" ca="1" si="64">E26+H26</f>
         <v>43160</v>
       </c>
       <c r="G26" s="11">
-        <v>12955</v>
+        <v>13020</v>
       </c>
       <c r="H26" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I26" s="12">
         <f>(H26)/365</f>
-        <v>7.6712328767123292E-2</v>
+        <v>7.3972602739726029E-2</v>
       </c>
       <c r="J26" s="12">
         <v>0</v>
       </c>
       <c r="K26" s="9">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="L26" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-300.10403332458918</v>
+        <v>-324.3926547270903</v>
       </c>
       <c r="M26" s="15">
         <v>70</v>
       </c>
       <c r="N26" s="13">
         <f t="shared" ref="N26" si="65">M26/10000*I26*P26</f>
-        <v>6.9566575342465757</v>
+        <v>6.7418630136986302</v>
       </c>
       <c r="O26" s="13">
         <f t="shared" ref="O26" si="66">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>307.06069085883576</v>
+        <v>331.13451774078891</v>
       </c>
       <c r="P26" s="11">
-        <v>12955</v>
+        <v>13020</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>85</v>
@@ -6093,40 +6096,92 @@
       </c>
       <c r="T26" s="14">
         <f t="shared" ref="T26" si="68">O26/P26</f>
-        <v>2.3702098869844521E-2</v>
+        <v>2.5432758659046768E-2</v>
       </c>
       <c r="U26" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>0.48765090873530426</v>
+        <v>0.48680334566597594</v>
       </c>
       <c r="V26" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-14.286635351334553</v>
+        <v>-14.099425459105532</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
+      <c r="B27" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" ca="1" si="18"/>
+        <v>43133</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" ref="F27" ca="1" si="69">E27+H27</f>
+        <v>43155</v>
+      </c>
+      <c r="G27" s="11">
+        <v>13020</v>
+      </c>
+      <c r="H27" s="10">
+        <v>22</v>
+      </c>
+      <c r="I27" s="12">
+        <f>(H27-7)/365</f>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="L27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>-336.61783804983588</v>
+      </c>
+      <c r="M27" s="15">
+        <v>70</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" ref="N27" si="70">M27/10000*I27*P27</f>
+        <v>3.745479452054794</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" ref="O27" si="71">IF(L27&lt;=0,ABS(L27)+N27,L27-N27)</f>
+        <v>340.36331750189066</v>
+      </c>
+      <c r="P27" s="11">
+        <v>13020</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" ref="R27" si="72">IF(S27="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="14">
+        <f t="shared" ref="T27" si="73">O27/P27</f>
+        <v>2.6141575844999283E-2</v>
+      </c>
+      <c r="U27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>0.48666225761735404</v>
+      </c>
+      <c r="V27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>-10.515617195163031</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -7123,11 +7178,11 @@
       </c>
       <c r="F8" s="54">
         <f ca="1">TODAY()</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="G8" s="54">
         <f ca="1">F8+I8</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="H8" s="52">
         <v>100</v>
@@ -7191,11 +7246,11 @@
       </c>
       <c r="F9" s="62">
         <f ca="1">F8</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="G9" s="62">
         <f ca="1">G8</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="H9" s="60">
         <v>100</v>
@@ -7259,11 +7314,11 @@
       </c>
       <c r="F10" s="70">
         <f ca="1">F9</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="G10" s="70">
         <f ca="1">G9</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="H10" s="68" t="str">
         <f>H8 &amp; "|" &amp; H9</f>
@@ -8228,9 +8283,9 @@
       <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3961</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -8238,20 +8293,20 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19" t="e">
+      <c r="K8" s="19">
         <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>#VALUE!</v>
+        <v>3854.5749992553683</v>
       </c>
       <c r="L8" s="44">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -8266,32 +8321,32 @@
       <c r="R8" s="23">
         <v>0.3</v>
       </c>
-      <c r="S8" s="24" t="e">
+      <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>#VALUE!</v>
+        <v>-79.22</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
-      <c r="U8" s="24" t="e">
+      <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V8" s="24" t="e">
+        <v>2.6044931506849314</v>
+      </c>
+      <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W8" s="26" t="e">
+        <v>81.82449315068493</v>
+      </c>
+      <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X8" s="24" t="e">
+        <v>2.0657534246575342E-2</v>
+      </c>
+      <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y8" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -8333,11 +8388,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -10162,20 +10217,20 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3961</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -10187,32 +10242,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24" t="e">
+      <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <v>230.69944167510585</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24" t="e">
+      <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R8" s="24" t="e">
+        <v>2.6044931506849314</v>
+      </c>
+      <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S8" s="26" t="e">
+        <v>233.30393482579078</v>
+      </c>
+      <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T8" s="24" t="e">
+        <v>5.8900261253670989E-2</v>
+      </c>
+      <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="24" t="e">
+        <v>0.70310530040842423</v>
+      </c>
+      <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <v>3.9224696775700068</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -10244,11 +10299,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -10314,11 +10369,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
